--- a/Lab2/Book1.xlsx
+++ b/Lab2/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facultate\IPC\Lab\Lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEF7C993-C6B2-4896-9A1D-0729250E017E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCCE8F0-BABA-48CD-9FC0-1A7B6F700D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EE6FAF92-2424-493F-A31D-F280A9A0A4D9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Criteriul de acordare si regulator obtinut</t>
   </si>
@@ -53,34 +53,73 @@
     <t>Domeniul de variatie a comenzii</t>
   </si>
   <si>
-    <t xml:space="preserve">Ref - Chien-Hrones-Reswich - P </t>
-  </si>
-  <si>
-    <t>Ref - Chien-Hrones-Reswich - PI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref - Chien-Hrones-Reswich - PID q = 1 </t>
-  </si>
-  <si>
-    <t>Ref - Chien-Hrones-Reswich - PID q = 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ref - Chien-Hrones-Reswich - PID  </t>
-  </si>
-  <si>
-    <t>Per - Chien-Hrones-Reswich - P</t>
-  </si>
-  <si>
-    <t>Per - Chien-Hrones-Reswich - PI</t>
-  </si>
-  <si>
-    <t>Per - Chien-Hrones-Reswich - PID q = 1</t>
-  </si>
-  <si>
-    <t>Per - Chien-Hrones-Reswich - PID q = 0</t>
-  </si>
-  <si>
-    <t>Per - Chien-Hrones-Reswich - PID</t>
+    <t xml:space="preserve">Chien-Hrones-Reswich - P </t>
+  </si>
+  <si>
+    <t>Chien-Hrones-Reswich - PI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chien-Hrones-Reswich - PID q = 1 </t>
+  </si>
+  <si>
+    <t>Chien-Hrones-Reswich - PID q = 0</t>
+  </si>
+  <si>
+    <t>Chien-Hrones-Reswich - P</t>
+  </si>
+  <si>
+    <t>Chien-Hrones-Reswich - PID q = 1</t>
+  </si>
+  <si>
+    <t>REFERINTA</t>
+  </si>
+  <si>
+    <t>PERTURBATIE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>102s</t>
+  </si>
+  <si>
+    <t>0.47 - 0.157</t>
+  </si>
+  <si>
+    <t>1.039 - 0.13</t>
+  </si>
+  <si>
+    <t>194s</t>
+  </si>
+  <si>
+    <t>300s</t>
+  </si>
+  <si>
+    <t>683s</t>
+  </si>
+  <si>
+    <t>1.2 - 0.4</t>
+  </si>
+  <si>
+    <t>1.034 - (-0.02)</t>
+  </si>
+  <si>
+    <t>81s</t>
+  </si>
+  <si>
+    <t>242.6s</t>
+  </si>
+  <si>
+    <t>1 - 0.235</t>
+  </si>
+  <si>
+    <t>361.8s</t>
+  </si>
+  <si>
+    <t>360s</t>
+  </si>
+  <si>
+    <t>0.86 - 0.06</t>
   </si>
 </sst>
 </file>
@@ -116,8 +155,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0079BA9-9DE0-4664-84EC-272A60D330D4}">
-  <dimension ref="B1:F11"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,54 +490,92 @@
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
@@ -506,12 +585,87 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.39</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
